--- a/va_facility_data_2025-02-20/Corporal Michael J. Crescenz Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Corporal%20Michael%20J.%20Crescenz%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Corporal Michael J. Crescenz Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Corporal%20Michael%20J.%20Crescenz%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R3660b81780e24286908ea5384ac9b544"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R595536a1dadb47debe79d8967730e107"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd63e5795923d4e62a63225b63b0c72ec"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rf64a292fc6d949db9d9d9dab007bb8f1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R2897159f5d4e403585c6f4d3d097564a"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rfc47502e9ea141efb7ecc8a9b962fdd6"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R447555890f5e4010a28eaa396e66e07a"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R985050c1ff5b4c61b287c15ee98f2b2b"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R4c3f065511c44f05bccd01dfef5d420e"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R30d0f7934f1d4ed99f1bc696a7e81ba1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R1a9cf887cd474716b7cbca31b0235f48"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R48f8019a239e450f9522f09c5d32035c"/>
   </x:sheets>
 </x:workbook>
 </file>
